--- a/spc/results/t01/M_0.30_k_0.05/iht_GAUSSIAN_30dB/iht_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/iht_GAUSSIAN_30dB/iht_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A234"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,781 +830,6 @@
         <v>146.3580147977423</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>145.9279711591084</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>145.5581296802623</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>145.2384505003012</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>144.70122400318</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>144.2515868019865</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>143.6204433577147</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>143.0914612107972</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>142.6470750572455</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>142.2704160175638</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>141.9486714486423</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>141.4409899990705</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>140.7767539417271</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>140.2380129563533</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>139.5600379705436</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>139.0018095008732</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>138.334810900999</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>137.7892133329551</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>137.1311409766062</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>136.3889490921722</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>135.783616407613</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>135.2854427887826</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>134.4838228792571</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>133.8361964586508</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>133.3109768531543</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>132.8791983897971</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>132.520003966147</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>132.2181165552533</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>131.7472388798381</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>131.3626099416292</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>131.0438258368995</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>130.7768001437106</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>130.3443065392048</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>129.7823042513532</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>129.1151271542703</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>128.3874536407816</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>127.7952023894563</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>127.3117972536889</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>126.7248025403487</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>126.2413296006276</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>125.8409651677941</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>125.5066313259136</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>125.0334607603991</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>124.6325955209381</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>124.2968664667432</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>124.013455876923</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123.7725639755731</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>123.5665900046603</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>123.3895588677033</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>123.0676134542067</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>122.7962297694507</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>122.570796365194</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>122.3815688098595</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>122.2212920953391</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>121.9113728413388</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>121.6517697460292</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>121.4361343735698</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>121.2552745528966</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>121.1022804467997</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>120.9718845478455</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>120.8600163504407</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>120.5886380589647</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>120.3614492710195</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>120.0113916155355</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>119.7266682555306</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>119.4958008784588</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>119.30578649945</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>119.1473564465977</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>119.0137853425817</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>118.9001035980113</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>118.8025718347025</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>118.7183263343369</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>118.4662161880528</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>118.2665440479165</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>118.1042579567915</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>117.9708679818652</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>117.7016727897382</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>117.4773841084546</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>117.2942432141061</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>117.1430555521032</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>116.8532657645865</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>116.6202610097406</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>116.4323947878069</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>116.1154854355671</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>115.8589346404809</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>115.6521754424876</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>115.4836547665679</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>115.3449156614215</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>115.0647248687846</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>114.8358028935005</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>114.6500742168204</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>114.4974138300698</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>114.2066171229466</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>113.9725738786043</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>113.7847812857716</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>113.6322735795442</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>113.5071056672419</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>113.4034260825328</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>113.316855561268</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>113.2440658195932</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>113.1824904826911</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>113.1301240442844</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>113.08538007973</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>113.0469898023323</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>113.0139284279324</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>112.9853609574499</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>112.9606017010708</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>112.9390836597429</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>112.9203350737366</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>112.9039612516959</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>112.8896303403085</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>112.8770620708005</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>112.8660187802059</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>112.8562981896936</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>112.8477275536215</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>112.8401588877634</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>112.8334650543155</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>112.8275365323507</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>112.8222787404958</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>112.8176098073416</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>112.8134587069895</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>112.8097636939609</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>112.8064709847474</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>112.8035336434758</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>112.8009106371992</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>112.7985660326903</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>112.7964683117006</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>112.7945897857267</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>112.7929060946218</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>112.7913957760601</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>112.790039895041</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>112.7888217244018</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>112.7877264687738</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>112.7867410256242</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>112.7858537780281</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>112.7850544146456</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>112.7843337730712</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>112.7836837033035</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>112.783096948566</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>112.7825670411194</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>112.7820882110484</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>112.7816553062959</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>112.7812637224637</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>112.7809093411072</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>112.7805884754268</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>112.7802978224118</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>112.7800344206208</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>112.7797956128905</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>112.7795790133625</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>112.7793824782956</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>112.7792040802028</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>112.7790420849099</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>112.7788949311871</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>112.7787612126458</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>112.7786396616353</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>112.7785291349051</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
